--- a/ZohoChecks.xlsx
+++ b/ZohoChecks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Documents\GitHub\zohocrm-python-sdk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5251B4BA-D5AC-4ECC-9B01-5ADC14DE841B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BA88E7-E538-4435-AFE5-5EE76878F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{327B7F8C-0702-41DB-B19B-AD45F69EBF67}"/>
   </bookViews>
@@ -38,21 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Lead Owner</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Lead Source</t>
-  </si>
-  <si>
     <t>Company</t>
   </si>
   <si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>Home</t>
+  </si>
+  <si>
+    <t>Last_Name</t>
+  </si>
+  <si>
+    <t>First_Name</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Lead_Source</t>
   </si>
 </sst>
 </file>
@@ -230,9 +230,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,7 +572,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,215 +584,215 @@
     <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
-        <v>9580238638</v>
+        <v>7</v>
+      </c>
+      <c r="H2" s="2">
+        <v>919580238638</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>6666666666</v>
+        <v>7</v>
+      </c>
+      <c r="H3" s="2">
+        <v>916666666666</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4">
-        <v>888888888</v>
+      <c r="H4" s="2">
+        <v>918888888888</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5">
-        <v>888889999</v>
+      <c r="H5" s="2">
+        <v>917888889999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <v>1111111111</v>
+      <c r="H6" s="2">
+        <v>911111111111</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" t="s">
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7">
-        <v>777777777</v>
+      <c r="H7" s="2">
+        <v>917777777777</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8">
-        <v>999999999</v>
+      <c r="H8" s="2">
+        <v>919999999999</v>
       </c>
     </row>
   </sheetData>

--- a/ZohoChecks.xlsx
+++ b/ZohoChecks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Documents\GitHub\zohocrm-python-sdk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BA88E7-E538-4435-AFE5-5EE76878F5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503F74C-DEAC-4583-A47D-9AD1691BF543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{327B7F8C-0702-41DB-B19B-AD45F69EBF67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>Email</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Mobile</t>
   </si>
   <si>
-    <t>YP</t>
-  </si>
-  <si>
     <t>Khud Se Aaya</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>OP</t>
-  </si>
-  <si>
     <t>Summit Entertainment</t>
   </si>
   <si>
@@ -186,6 +180,27 @@
   </si>
   <si>
     <t>Lead_Source</t>
+  </si>
+  <si>
+    <t>811488000000337001</t>
+  </si>
+  <si>
+    <t>Lando</t>
+  </si>
+  <si>
+    <t>Norris</t>
+  </si>
+  <si>
+    <t>lando@mando.com</t>
+  </si>
+  <si>
+    <t>Lead Racer</t>
+  </si>
+  <si>
+    <t>Red Bull Alpha Tauri</t>
+  </si>
+  <si>
+    <t>Salzburg</t>
   </si>
 </sst>
 </file>
@@ -230,10 +245,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E1DAC8-CD0B-4B93-806F-E9043170E486}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,19 +605,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -615,184 +631,210 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" s="2">
-        <v>919580238638</v>
+        <v>9580238638</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2">
-        <v>916666666666</v>
+        <v>6666666666</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="2">
-        <v>918888888888</v>
+        <v>8888888888</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" s="2">
-        <v>917888889999</v>
+        <v>7888889999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="2">
-        <v>911111111111</v>
+        <v>1111111111</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" s="2">
-        <v>917777777777</v>
+        <v>7777777777</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="1" t="s">
+      <c r="F8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
       <c r="H8" s="2">
-        <v>919999999999</v>
+        <v>9999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="2">
+        <v>7898233737</v>
       </c>
     </row>
   </sheetData>
@@ -804,6 +846,7 @@
     <hyperlink ref="D6" r:id="rId5" xr:uid="{1DB8EE37-1506-4EA4-9938-F560B07EDE96}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{FD0281F4-11BD-4B75-8A39-5F25F0A8E773}"/>
     <hyperlink ref="D8" r:id="rId7" xr:uid="{8F366D9F-0FBA-4A32-B255-8A2A2C366661}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{4D516776-9065-4F2D-948E-2022ABA51D16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ZohoChecks.xlsx
+++ b/ZohoChecks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Documents\GitHub\zohocrm-python-sdk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503F74C-DEAC-4583-A47D-9AD1691BF543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826AD640-8B10-4D3E-A338-E8C24B1F071B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{327B7F8C-0702-41DB-B19B-AD45F69EBF67}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Email</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Salzburg</t>
+  </si>
+  <si>
+    <t>Phone</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E1DAC8-CD0B-4B93-806F-E9043170E486}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,9 +604,10 @@
     <col min="6" max="6" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -628,8 +632,11 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -654,8 +661,11 @@
       <c r="H2" s="2">
         <v>9580238638</v>
       </c>
+      <c r="I2" s="2">
+        <v>9580238638</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -680,8 +690,11 @@
       <c r="H3" s="2">
         <v>6666666666</v>
       </c>
+      <c r="I3" s="2">
+        <v>6666666666</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -706,8 +719,11 @@
       <c r="H4" s="2">
         <v>8888888888</v>
       </c>
+      <c r="I4" s="2">
+        <v>8888888888</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -732,8 +748,11 @@
       <c r="H5" s="2">
         <v>7888889999</v>
       </c>
+      <c r="I5" s="2">
+        <v>7888889999</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -758,8 +777,11 @@
       <c r="H6" s="2">
         <v>1111111111</v>
       </c>
+      <c r="I6" s="2">
+        <v>1111111111</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -784,8 +806,11 @@
       <c r="H7" s="2">
         <v>7777777777</v>
       </c>
+      <c r="I7" s="2">
+        <v>7777777777</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -810,8 +835,11 @@
       <c r="H8" s="2">
         <v>9999999999</v>
       </c>
+      <c r="I8" s="2">
+        <v>9999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -834,6 +862,9 @@
         <v>54</v>
       </c>
       <c r="H9" s="2">
+        <v>7898233737</v>
+      </c>
+      <c r="I9" s="2">
         <v>7898233737</v>
       </c>
     </row>
@@ -849,5 +880,6 @@
     <hyperlink ref="D9" r:id="rId8" xr:uid="{4D516776-9065-4F2D-948E-2022ABA51D16}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>